--- a/Resources/Шаблоны/Книги учета/Книга учета выданных свидетельств.xlsx
+++ b/Resources/Шаблоны/Книги учета/Книга учета выданных свидетельств.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Moscow\УчетКлиентов\Resources\Шаблоны\Книги учета\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E2E4D-1029-49A1-91A9-39EC0D660B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8B0FA-8B47-486B-9A6F-45FE125F8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -253,12 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,9 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,6 +279,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -302,6 +306,43 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -697,42 +738,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -851,18 +856,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB2F3E2-6690-44CD-937E-97711C701F2E}" name="Таблица1" displayName="Таблица1" ref="A2:L3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A2:L3" xr:uid="{ECB2F3E2-6690-44CD-937E-97711C701F2E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{72094205-A881-4FAE-8ED5-3494765B298B}" name="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{079A22B6-49B4-48AB-A3AD-24B4A8CE7837}" name="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F08242A3-F7DC-4486-BB44-EB291D6F9094}" name="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{32BABD09-2950-49CB-9DCC-DE9DE8574B75}" name="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1B57E611-95B3-4B2F-8C55-E599C51E473B}" name="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7C62A62A-2512-43F8-AF18-3A6EB11048A8}" name="6" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AEF6D406-ECAC-4101-8F51-6EE1B0A5AEA2}" name="7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{F2362515-F930-43DE-8C7C-BA3138A6C537}" name="8" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EDFA52AD-FD93-4F21-BE53-26E2CC0D0244}" name="9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B731DA8C-979D-47C3-89AD-E41D2EC9CD60}" name="10" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{86E22496-53E4-4B50-B405-33AF4D3D6F2C}" name="11" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{CAEEF95A-CAE2-4345-B599-307B5F3C90A4}" name="12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72094205-A881-4FAE-8ED5-3494765B298B}" name="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{079A22B6-49B4-48AB-A3AD-24B4A8CE7837}" name="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F08242A3-F7DC-4486-BB44-EB291D6F9094}" name="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{32BABD09-2950-49CB-9DCC-DE9DE8574B75}" name="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1B57E611-95B3-4B2F-8C55-E599C51E473B}" name="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{7C62A62A-2512-43F8-AF18-3A6EB11048A8}" name="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AEF6D406-ECAC-4101-8F51-6EE1B0A5AEA2}" name="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F2362515-F930-43DE-8C7C-BA3138A6C537}" name="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{EDFA52AD-FD93-4F21-BE53-26E2CC0D0244}" name="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B731DA8C-979D-47C3-89AD-E41D2EC9CD60}" name="10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{86E22496-53E4-4B50-B405-33AF4D3D6F2C}" name="11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{CAEEF95A-CAE2-4345-B599-307B5F3C90A4}" name="12" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,12 +1139,12 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -1153,7 +1158,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1189,64 +1194,64 @@
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Resources/Шаблоны/Книги учета/Книга учета выданных свидетельств.xlsx
+++ b/Resources/Шаблоны/Книги учета/Книга учета выданных свидетельств.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Moscow\УчетКлиентов\Resources\Шаблоны\Книги учета\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8B0FA-8B47-486B-9A6F-45FE125F8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A06938-8D22-4587-9BE0-07449DA9D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,19 +265,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,10 +273,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -306,12 +303,454 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
@@ -319,7 +758,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -332,67 +771,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -402,399 +788,10 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -853,10 +850,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB2F3E2-6690-44CD-937E-97711C701F2E}" name="Таблица1" displayName="Таблица1" ref="A2:L3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ECB2F3E2-6690-44CD-937E-97711C701F2E}" name="Таблица1" displayName="Таблица1" ref="A2:L3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:L3" xr:uid="{ECB2F3E2-6690-44CD-937E-97711C701F2E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{72094205-A881-4FAE-8ED5-3494765B298B}" name="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72094205-A881-4FAE-8ED5-3494765B298B}" name="1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{079A22B6-49B4-48AB-A3AD-24B4A8CE7837}" name="2" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{F08242A3-F7DC-4486-BB44-EB291D6F9094}" name="3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{32BABD09-2950-49CB-9DCC-DE9DE8574B75}" name="4" dataDxfId="9"/>
@@ -1139,12 +1136,12 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -1158,7 +1155,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1198,7 +1195,7 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1238,18 +1235,18 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
